--- a/metrics/R2/average time/Enfermedad renal terminal.xlsx
+++ b/metrics/R2/average time/Enfermedad renal terminal.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8941119210462777</v>
+        <v>0.8772228830856618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8941119210462777</v>
+        <v>0.8772228830856618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8941119210462777</v>
+        <v>0.8772228830856618</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9871887808165811</v>
+        <v>0.9857855617505082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9870758190049945</v>
+        <v>0.9866639610011182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9869636594144283</v>
+        <v>0.9862338695824491</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9898431639629728</v>
+        <v>0.9878483624006319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9898616323457405</v>
+        <v>0.9888669331164325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9898344444215605</v>
+        <v>0.9888648618560826</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9777414661189453</v>
+        <v>0.9767092632751974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9782772565925422</v>
+        <v>0.975890076948407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.976481592000913</v>
+        <v>0.9765580978127288</v>
       </c>
     </row>
   </sheetData>
